--- a/Connectivity_matrices/Old_saved_matrix.xlsx
+++ b/Connectivity_matrices/Old_saved_matrix.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bclem\OneDrive\Documents\GitHub\Megalopta_CX\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bclem\OneDrive\Documents\GitHub\Megalopta_CX\Connectivity_matrices\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D8E01CF-3D23-40CD-B0E1-0E2F14DBB143}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E92AB29-7377-4B41-89E8-FE886C0955E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23808" yWindow="768" windowWidth="23040" windowHeight="12120" firstSheet="8" activeTab="8" xr2:uid="{093D5FC8-3546-4B30-B5BC-72449F880B19}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="2" xr2:uid="{093D5FC8-3546-4B30-B5BC-72449F880B19}"/>
   </bookViews>
   <sheets>
     <sheet name="Global" sheetId="13" r:id="rId1"/>
@@ -55401,8 +55401,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7FFBB60-C9AF-470A-B711-59681D0A1768}">
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -58096,7 +58096,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78DE8B51-B1FF-4D25-B506-1F575EB0C016}">
   <dimension ref="A1:P16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="T14" sqref="T14"/>
     </sheetView>
   </sheetViews>
